--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/149.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/149.xlsx
@@ -479,13 +479,13 @@
         <v>-11.56456974249399</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.40312000838162</v>
+        <v>-14.60432251845326</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2827517506336658</v>
+        <v>-0.05848603063308243</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.591106377065529</v>
+        <v>-7.979119773031886</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.30000571428222</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.80168898379228</v>
+        <v>-15.0081545996063</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2324773077214377</v>
+        <v>-0.1349712638344461</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.668560440677181</v>
+        <v>-8.113276600251053</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.96974376910067</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.07963857312213</v>
+        <v>-15.38211004567452</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4104540725518619</v>
+        <v>0.02231966250605087</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.444629692872299</v>
+        <v>-7.898968695034839</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.60229362857502</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.5105586288547</v>
+        <v>-15.78657055736397</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3370324382154621</v>
+        <v>-0.003812573966034365</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.485242016287332</v>
+        <v>-7.944948862614981</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.223784266032</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.1184211574932</v>
+        <v>-16.4286432733279</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3599701527941662</v>
+        <v>-0.03887376097617678</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.540949764878876</v>
+        <v>-7.951796137001204</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.845632026488817</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.72797259319828</v>
+        <v>-17.03672837111471</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4768582325650965</v>
+        <v>0.1002450490200044</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.334628164396115</v>
+        <v>-7.764392914124737</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.493086671669747</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.32927587811308</v>
+        <v>-17.69715649566274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5504762514441222</v>
+        <v>0.140124203475902</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.501358641085497</v>
+        <v>-7.835667410795094</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.168628317830729</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.86263011127931</v>
+        <v>-18.24823770687667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6217245635087955</v>
+        <v>0.1810638344619794</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.249397272896479</v>
+        <v>-7.642123897885857</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.892217217673236</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.67792708614212</v>
+        <v>-19.02137746658912</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8489938485383183</v>
+        <v>0.3783648382867913</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.111247293310585</v>
+        <v>-7.526793802153092</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.662048683307772</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.370627737195</v>
+        <v>-19.6623373368115</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9878900893861902</v>
+        <v>0.4254447593056382</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.130388240065189</v>
+        <v>-7.534282599378559</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.496976449606436</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.19302074019803</v>
+        <v>-20.48504455508273</v>
       </c>
       <c r="F12" t="n">
-        <v>1.061717585110683</v>
+        <v>0.4885758436084414</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.993521306157785</v>
+        <v>-7.429701284278852</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.395170439600985</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.94111492457425</v>
+        <v>-21.22036065188543</v>
       </c>
       <c r="F13" t="n">
-        <v>1.090271897608488</v>
+        <v>0.5213851545298068</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.674736824264596</v>
+        <v>-7.110091987306635</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.372417858045667</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.00616066844583</v>
+        <v>-22.26403975751931</v>
       </c>
       <c r="F14" t="n">
-        <v>1.34271768100265</v>
+        <v>0.6657539779655203</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.273575572891268</v>
+        <v>-6.710305427731687</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.422164443707405</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.74258961099008</v>
+        <v>-23.00058653078913</v>
       </c>
       <c r="F15" t="n">
-        <v>1.560678338711706</v>
+        <v>0.8725076244420583</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.921628287899988</v>
+        <v>-6.268715145183109</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.545312733936223</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.85730755184316</v>
+        <v>-24.01666706203265</v>
       </c>
       <c r="F16" t="n">
-        <v>1.833679037567377</v>
+        <v>1.135099942538558</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.457820367429</v>
+        <v>-5.762409609687879</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.72445379136226</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.88989747697009</v>
+        <v>-25.05839541454311</v>
       </c>
       <c r="F17" t="n">
-        <v>1.973373908888595</v>
+        <v>1.240322780477511</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.054302501544162</v>
+        <v>-5.341819380897428</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.943858582389751</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.70334843713222</v>
+        <v>-25.80940918245304</v>
       </c>
       <c r="F18" t="n">
-        <v>2.069078642661612</v>
+        <v>1.308337293740277</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.623605014959899</v>
+        <v>-4.897793930020289</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.178300643101206</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.53330879117776</v>
+        <v>-26.64647865694164</v>
       </c>
       <c r="F19" t="n">
-        <v>2.309165292173185</v>
+        <v>1.517395185516959</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.965284751169387</v>
+        <v>-4.242131403706647</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.403843787535383</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.07830208157029</v>
+        <v>-27.20597821888281</v>
       </c>
       <c r="F20" t="n">
-        <v>2.437731706078935</v>
+        <v>1.667118760814938</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.357396037925204</v>
+        <v>-3.619985172667825</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-9.597992117310239</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.91068451164155</v>
+        <v>-28.00289360055583</v>
       </c>
       <c r="F21" t="n">
-        <v>2.505078511896774</v>
+        <v>1.690999121198247</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.131305060151436</v>
+        <v>-3.314659578095931</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.739641236332428</v>
       </c>
       <c r="E22" t="n">
-        <v>-28.645607839359</v>
+        <v>-28.67676752012231</v>
       </c>
       <c r="F22" t="n">
-        <v>2.686092690986479</v>
+        <v>1.83710922091191</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.716828936788072</v>
+        <v>-2.870136619710806</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.817416814491247</v>
       </c>
       <c r="E23" t="n">
-        <v>-29.029094481896</v>
+        <v>-29.10836837560265</v>
       </c>
       <c r="F23" t="n">
-        <v>2.891668030207261</v>
+        <v>2.039594776662045</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.360495730344814</v>
+        <v>-2.538587142546935</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.820134734751118</v>
       </c>
       <c r="E24" t="n">
-        <v>-29.54278407619396</v>
+        <v>-29.58452233765339</v>
       </c>
       <c r="F24" t="n">
-        <v>2.871427330013953</v>
+        <v>2.054546186507296</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.245270373034783</v>
+        <v>-2.416291941702372</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.751113431965974</v>
       </c>
       <c r="E25" t="n">
-        <v>-29.98480640473632</v>
+        <v>-30.01270610209204</v>
       </c>
       <c r="F25" t="n">
-        <v>3.027801795155529</v>
+        <v>2.250433221625202</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.957711033419112</v>
+        <v>-2.176283846007849</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.609694004578255</v>
       </c>
       <c r="E26" t="n">
-        <v>-30.2982230424644</v>
+        <v>-30.26291310170027</v>
       </c>
       <c r="F26" t="n">
-        <v>2.963309111357186</v>
+        <v>2.253863404969734</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.793193155909982</v>
+        <v>-1.990923022374692</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.410889238854217</v>
       </c>
       <c r="E27" t="n">
-        <v>-30.16080623183764</v>
+        <v>-30.11089837340499</v>
       </c>
       <c r="F27" t="n">
-        <v>3.041208313265456</v>
+        <v>2.324352363469587</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.6686329866738</v>
+        <v>-1.900298102104264</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.160586699370647</v>
       </c>
       <c r="E28" t="n">
-        <v>-30.05990385383646</v>
+        <v>-30.01896422285039</v>
       </c>
       <c r="F28" t="n">
-        <v>3.005492511113228</v>
+        <v>2.351584353380377</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.341940753864209</v>
+        <v>-1.570097132133091</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.878728359695694</v>
       </c>
       <c r="E29" t="n">
-        <v>-30.13510604135934</v>
+        <v>-30.03324792525071</v>
       </c>
       <c r="F29" t="n">
-        <v>2.941314042583087</v>
+        <v>2.330401007382465</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.407821221763775</v>
+        <v>-1.637077353471361</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.571607875187889</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.94026639046877</v>
+        <v>-29.82398055662856</v>
       </c>
       <c r="F30" t="n">
-        <v>2.839717772531292</v>
+        <v>2.216838372533333</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.651573716071031</v>
+        <v>-1.854579780580957</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.257305287370242</v>
       </c>
       <c r="E31" t="n">
-        <v>-29.59689456383882</v>
+        <v>-29.46129758330706</v>
       </c>
       <c r="F31" t="n">
-        <v>2.847101831334026</v>
+        <v>2.249700052666065</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.770333995148328</v>
+        <v>-1.995243482312461</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.937382076316877</v>
       </c>
       <c r="E32" t="n">
-        <v>-29.25733259733581</v>
+        <v>-29.08872992134006</v>
       </c>
       <c r="F32" t="n">
-        <v>2.928431216586828</v>
+        <v>2.312255075643832</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.150259531312377</v>
+        <v>-2.316345301808635</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.625952589869001</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.98481631368528</v>
+        <v>-28.74319786474123</v>
       </c>
       <c r="F33" t="n">
-        <v>2.899575781123664</v>
+        <v>2.317046858483904</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.167397355732196</v>
+        <v>-2.373872880495179</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.320894127777205</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.33850169160063</v>
+        <v>-28.08534892385302</v>
       </c>
       <c r="F34" t="n">
-        <v>2.819581810760718</v>
+        <v>2.259100326106425</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.378353631420929</v>
+        <v>-2.674419784529843</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.033900336816835</v>
       </c>
       <c r="E35" t="n">
-        <v>-27.85900919232526</v>
+        <v>-27.52912243762229</v>
       </c>
       <c r="F35" t="n">
-        <v>2.759278663871727</v>
+        <v>2.219509202313045</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.499693094158046</v>
+        <v>-2.817466285378542</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.759702648147481</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.25798084577014</v>
+        <v>-26.90362457705598</v>
       </c>
       <c r="F36" t="n">
-        <v>2.787427114981438</v>
+        <v>2.214141358147937</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.567471945969662</v>
+        <v>-2.917805694357531</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.506222564785168</v>
       </c>
       <c r="E37" t="n">
-        <v>-26.54359934121136</v>
+        <v>-26.23913783862702</v>
       </c>
       <c r="F37" t="n">
-        <v>2.862707856321363</v>
+        <v>2.282640286615848</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.652375529898255</v>
+        <v>-3.021378902138426</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.264009758567001</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.01836233580699</v>
+        <v>-25.68991573441661</v>
       </c>
       <c r="F38" t="n">
-        <v>2.863624317520284</v>
+        <v>2.383529572314189</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.759706228594725</v>
+        <v>-3.239012252276438</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.037839432306379</v>
       </c>
       <c r="E39" t="n">
-        <v>-25.35001336803972</v>
+        <v>-25.01958982892024</v>
       </c>
       <c r="F39" t="n">
-        <v>2.992138362214667</v>
+        <v>2.471248001353754</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.89657316250213</v>
+        <v>-3.40840046644269</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.816750395077099</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.76542895385381</v>
+        <v>-24.43750604457709</v>
       </c>
       <c r="F40" t="n">
-        <v>3.085565035293224</v>
+        <v>2.572215840869145</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.068736944870827</v>
+        <v>-3.648840608130989</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.60527493237086</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.12217793063412</v>
+        <v>-23.77857044255302</v>
       </c>
       <c r="F41" t="n">
-        <v>3.235052949140052</v>
+        <v>2.697168779190579</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.066406514965</v>
+        <v>-3.772772346830768</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.394741408864524</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.42865246450221</v>
+        <v>-23.10040224765445</v>
       </c>
       <c r="F42" t="n">
-        <v>3.303420954579546</v>
+        <v>2.807824922808847</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.530659573732606</v>
+        <v>-4.293374677029163</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.192311834086331</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.91513307014119</v>
+        <v>-22.55391643473796</v>
       </c>
       <c r="F43" t="n">
-        <v>3.376790219704579</v>
+        <v>2.899837627180498</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.731914453015619</v>
+        <v>-4.53280671139865</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.991975048366815</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.00300542346097</v>
+        <v>-21.66388859525458</v>
       </c>
       <c r="F44" t="n">
-        <v>3.38378150942206</v>
+        <v>2.932882599553015</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.874070677271082</v>
+        <v>-4.73229412979803</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.801764099049105</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.45027458208898</v>
+        <v>-21.09471382151338</v>
       </c>
       <c r="F45" t="n">
-        <v>3.40137756444134</v>
+        <v>3.008189525498623</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.970914441391329</v>
+        <v>-4.942307759682158</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.616420595900964</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.85830610910034</v>
+        <v>-20.51342866764359</v>
       </c>
       <c r="F46" t="n">
-        <v>3.558249537090902</v>
+        <v>3.188653827868975</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.284776217416028</v>
+        <v>-5.225769208508368</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.442605634702487</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.48230826378881</v>
+        <v>-20.09626862219767</v>
       </c>
       <c r="F47" t="n">
-        <v>3.648848272755647</v>
+        <v>3.235393349013937</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.374838168664262</v>
+        <v>-5.339580597111493</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.27629704976432</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.72760246647751</v>
+        <v>-19.34728416122821</v>
       </c>
       <c r="F48" t="n">
-        <v>3.722191353274996</v>
+        <v>3.319629225497603</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.5228859291985</v>
+        <v>-5.559871684726376</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.124107595357232</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.25550711830771</v>
+        <v>-18.83229842894891</v>
       </c>
       <c r="F49" t="n">
-        <v>3.661809652568955</v>
+        <v>3.308736429533287</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.592563164922166</v>
+        <v>-5.632992196097416</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.985601511314619</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.72232308507841</v>
+        <v>-18.25162861331268</v>
       </c>
       <c r="F50" t="n">
-        <v>3.584277035140254</v>
+        <v>3.268804905866022</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.664138784557883</v>
+        <v>-5.706309092011082</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.8669692497151</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.04306822904398</v>
+        <v>-17.60479029911436</v>
       </c>
       <c r="F51" t="n">
-        <v>3.677206200710825</v>
+        <v>3.370113145255299</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.683881977243206</v>
+        <v>-5.742064171071836</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.768864427345998</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.50133492205904</v>
+        <v>-16.99513412498654</v>
       </c>
       <c r="F52" t="n">
-        <v>3.62543923527464</v>
+        <v>3.333978389412135</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.685413776675688</v>
+        <v>-5.776156527671691</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.694009607911249</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.9395834840291</v>
+        <v>-16.39299293268988</v>
       </c>
       <c r="F53" t="n">
-        <v>3.77744087126708</v>
+        <v>3.484854087360186</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.77774069631554</v>
+        <v>-5.943973665496936</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.642363818728943</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.23737782111312</v>
+        <v>-15.74993829401282</v>
       </c>
       <c r="F54" t="n">
-        <v>3.677022908471041</v>
+        <v>3.420466141984577</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.981155805567438</v>
+        <v>-6.086889243317217</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.613392444477539</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.6176798507057</v>
+        <v>-15.1317459384322</v>
       </c>
       <c r="F55" t="n">
-        <v>3.729077904569744</v>
+        <v>3.45280413000364</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.167014136708581</v>
+        <v>-6.270260036918433</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.606890428756615</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.28959983379489</v>
+        <v>-14.72587145803585</v>
       </c>
       <c r="F56" t="n">
-        <v>3.71561901724845</v>
+        <v>3.445105855932705</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.341390518257531</v>
+        <v>-6.438103359349361</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.620179400086261</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.67830712181186</v>
+        <v>-14.04538592553429</v>
       </c>
       <c r="F57" t="n">
-        <v>3.662699929162193</v>
+        <v>3.381346341093499</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.530260079052271</v>
+        <v>-6.596664239065506</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.653134650310547</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.21654160058418</v>
+        <v>-13.52122248896295</v>
       </c>
       <c r="F58" t="n">
-        <v>3.672885740773056</v>
+        <v>3.358775210994364</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.918512319823657</v>
+        <v>-6.914951213450708</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.69877774645413</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.68424784394812</v>
+        <v>-12.92069164991582</v>
       </c>
       <c r="F59" t="n">
-        <v>3.573829377472556</v>
+        <v>3.253382173118469</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.9831621112561</v>
+        <v>-6.947590324435131</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.754611510181468</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.23404282612969</v>
+        <v>-12.39629255189332</v>
       </c>
       <c r="F60" t="n">
-        <v>3.464822864012345</v>
+        <v>3.134085109624661</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.045285088240091</v>
+        <v>-7.099919267998613</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.812667128363771</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.90940608486625</v>
+        <v>-11.9786611835451</v>
       </c>
       <c r="F61" t="n">
-        <v>3.358958503234148</v>
+        <v>2.962366465552582</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.204971906000623</v>
+        <v>-7.207079766758142</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.873656536838868</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.48787321027119</v>
+        <v>-11.484256551333</v>
       </c>
       <c r="F62" t="n">
-        <v>3.099521430122504</v>
+        <v>2.664149991423745</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.408452476766731</v>
+        <v>-7.350610682811984</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.930763940180575</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.23571545753955</v>
+        <v>-11.25003525349452</v>
       </c>
       <c r="F63" t="n">
-        <v>3.000517436033372</v>
+        <v>2.54388409751965</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.518728943602589</v>
+        <v>-7.460703857408059</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.984714459260815</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.89543341438025</v>
+        <v>-10.87388030054889</v>
       </c>
       <c r="F64" t="n">
-        <v>2.903686764215966</v>
+        <v>2.391018369539657</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.533130476728488</v>
+        <v>-7.407444369447918</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.02937285831381</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.86152435002018</v>
+        <v>-10.76408824891817</v>
       </c>
       <c r="F65" t="n">
-        <v>2.667213590288709</v>
+        <v>2.163971653658443</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.489362908328597</v>
+        <v>-7.382752286288422</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.066281112062578</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.56190699948728</v>
+        <v>-10.50411439139002</v>
       </c>
       <c r="F66" t="n">
-        <v>2.580699653110583</v>
+        <v>2.044465113319167</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.591090101408809</v>
+        <v>-7.456265566744714</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.088896738455109</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.42468657340314</v>
+        <v>-10.2845041035229</v>
       </c>
       <c r="F67" t="n">
-        <v>2.249909529511533</v>
+        <v>1.750123960831482</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.450518045797196</v>
+        <v>-7.292598688920296</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.096200304053858</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.33522686808563</v>
+        <v>-10.17763163542589</v>
       </c>
       <c r="F68" t="n">
-        <v>2.015845339307154</v>
+        <v>1.456254131246099</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.425655762700758</v>
+        <v>-7.25599261017483</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.079540234849081</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.10956793630564</v>
+        <v>-9.936222663327307</v>
       </c>
       <c r="F69" t="n">
-        <v>1.860125489307664</v>
+        <v>1.296698236513983</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.250480750678464</v>
+        <v>-7.111977278915844</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.038339817646927</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.07510899522622</v>
+        <v>-9.866034827792815</v>
       </c>
       <c r="F70" t="n">
-        <v>1.586077406224654</v>
+        <v>1.042563546053238</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.085674842506815</v>
+        <v>-6.85739745015848</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.966512034478682</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.8761452689405</v>
+        <v>-9.648624046803111</v>
       </c>
       <c r="F71" t="n">
-        <v>1.56533919852336</v>
+        <v>0.9993589466755421</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.810016406174273</v>
+        <v>-6.635273440145755</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.867059810037929</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.91814537645676</v>
+        <v>-9.664688302389909</v>
       </c>
       <c r="F72" t="n">
-        <v>1.464030959134084</v>
+        <v>0.8721934091738569</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.753758780863376</v>
+        <v>-6.44878667846821</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.738860890663861</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.01356207956726</v>
+        <v>-9.776116891875839</v>
       </c>
       <c r="F73" t="n">
-        <v>1.341513189141211</v>
+        <v>0.7476987014518837</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.532551232049573</v>
+        <v>-6.240972555461491</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.591060548343819</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.17713731127179</v>
+        <v>-10.01386001917874</v>
       </c>
       <c r="F74" t="n">
-        <v>1.166115607970607</v>
+        <v>0.6014053094984366</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.339583780465373</v>
+        <v>-6.03639223125668</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.427701924438412</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.28797674712984</v>
+        <v>-10.16012722652651</v>
       </c>
       <c r="F75" t="n">
-        <v>1.112554997045106</v>
+        <v>0.5340846882862812</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.184426899488076</v>
+        <v>-5.846331270903343</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.260974449130887</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.43436178520318</v>
+        <v>-10.30584455715492</v>
       </c>
       <c r="F76" t="n">
-        <v>1.034511779805577</v>
+        <v>0.470050235087399</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.980344082791251</v>
+        <v>-5.589473381451519</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.095238181521391</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.86901314724564</v>
+        <v>-10.75608885188188</v>
       </c>
       <c r="F77" t="n">
-        <v>1.039971270090576</v>
+        <v>0.4265445127443432</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.821927218406366</v>
+        <v>-5.399504067218074</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.940816323844821</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.42139049644091</v>
+        <v>-11.34054234303937</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8531048316306202</v>
+        <v>0.278968075112407</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.654502849666373</v>
+        <v>-5.21136767538247</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.799136496322887</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.9992847438747</v>
+        <v>-11.97712938411262</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8904964485465899</v>
+        <v>0.2480178711945666</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.316773805561207</v>
+        <v>-4.865835618783636</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.67706894505865</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.27098930474904</v>
+        <v>-12.28177417893674</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7910604084636804</v>
+        <v>0.1541067829108655</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.063319914848232</v>
+        <v>-4.604316869520157</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.573192142617455</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.78338276106567</v>
+        <v>-12.85152501400298</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7298015234672441</v>
+        <v>0.1120935830917665</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.754249921663605</v>
+        <v>-4.316338576213551</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.491210347634902</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.59339044558042</v>
+        <v>-13.70519552849488</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7161200669976404</v>
+        <v>0.1004152489569469</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.520238100670593</v>
+        <v>-4.05692768770759</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.427868541723183</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.27017085637777</v>
+        <v>-14.37977643241482</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6310593754349462</v>
+        <v>0.01077225139964847</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.241516065473086</v>
+        <v>-3.740670020262856</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.383527244367574</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.09317919761435</v>
+        <v>-15.22676987245744</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5264780603352383</v>
+        <v>-0.05690186198923358</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.084683369732049</v>
+        <v>-3.568768083950992</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.354419809197848</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.96076683002701</v>
+        <v>-16.11448037433784</v>
       </c>
       <c r="F85" t="n">
-        <v>0.493943687773549</v>
+        <v>-0.119967484777828</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.853303101610225</v>
+        <v>-3.319831037718413</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.339284537694957</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.08334015258513</v>
+        <v>-17.26183742617534</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3633610592301732</v>
+        <v>-0.2236978001928237</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.694048329843469</v>
+        <v>-3.15756503629806</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.334887716642886</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.28966493642177</v>
+        <v>-18.47795525253759</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3851990203701723</v>
+        <v>-0.1909539507856668</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.474307118947939</v>
+        <v>-2.903260145900373</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.338114011399845</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.6032025882293</v>
+        <v>-19.82003412454009</v>
       </c>
       <c r="F88" t="n">
-        <v>0.421582529967329</v>
+        <v>-0.163892160811819</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.490240451506319</v>
+        <v>-2.84096696897944</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.346180113879614</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.9631655459136</v>
+        <v>-21.16947087073964</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2894419173857878</v>
+        <v>-0.28973537572649</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.445975375598444</v>
+        <v>-2.788178803921601</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.356376461647645</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.43936196822674</v>
+        <v>-22.64769659999325</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3217275361934843</v>
+        <v>-0.2503144518700528</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.444404299257437</v>
+        <v>-2.74433268170466</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.369993078624956</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.87374157526341</v>
+        <v>-24.14093920060632</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2731681849535224</v>
+        <v>-0.3256213778156611</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.505833384190815</v>
+        <v>-2.835298001848973</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.386664809233974</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.67101363246703</v>
+        <v>-25.90206340966394</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0946546357065874</v>
+        <v>-0.4587962823216987</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.660492757660125</v>
+        <v>-2.942995285025011</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.411509260580463</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.31081147109039</v>
+        <v>-27.57171169876642</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1221538993523963</v>
+        <v>-0.6951647178262211</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.675457259808218</v>
+        <v>-2.934446011269364</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.445939441086016</v>
       </c>
       <c r="E94" t="n">
-        <v>-30.01919988430154</v>
+        <v>-29.30528970264506</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1123739491296269</v>
+        <v>-0.7106136351794579</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.833442078199327</v>
+        <v>-3.090322968902955</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.496142608592475</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.81027928226103</v>
+        <v>-31.10030988375991</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3150820740280716</v>
+        <v>-0.892465721651033</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.810294886775155</v>
+        <v>-3.135177198438709</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.563736336570735</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.89333012589385</v>
+        <v>-33.20921802550514</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4441198108361238</v>
+        <v>-1.025116934043401</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.007334044543132</v>
+        <v>-3.322554236709492</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.650430609224941</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.92035900566693</v>
+        <v>-35.27625698276254</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.5339722852388897</v>
+        <v>-1.081178174811672</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.144371178387479</v>
+        <v>-3.515783534350527</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.756753524782678</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.0481986173213</v>
+        <v>-37.35918999566979</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.6685349738461503</v>
+        <v>-1.189909749912208</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.420422383805273</v>
+        <v>-3.835445200534111</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.875049276769694</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.11268457552456</v>
+        <v>-39.43942599419164</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.7884997447848863</v>
+        <v>-1.250644942794975</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.744378325320943</v>
+        <v>-4.193506590952477</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.007625162225752</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.35957249691875</v>
+        <v>-41.73006839168288</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.8012909246612526</v>
+        <v>-1.191755764612891</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.78448004892515</v>
+        <v>-4.228973639350713</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.132636800795197</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.4912350610029</v>
+        <v>-43.83766730314394</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.097059138158686</v>
+        <v>-1.330233051769828</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.102871761733086</v>
+        <v>-4.570879128062389</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.268388292294179</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.80927964834187</v>
+        <v>-46.19872010531797</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.234083179700191</v>
+        <v>-1.456861804855002</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.309874161963617</v>
+        <v>-4.789703877758998</v>
       </c>
     </row>
   </sheetData>
